--- a/Financial Statements/Consolidated Financials.xlsx
+++ b/Financial Statements/Consolidated Financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://springfertility-my.sharepoint.com/personal/zorinan_kasilag_springfertility_com/Documents/Documents/Python/Financial Statements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_DB6CAA3BC3B0501F9C76A17F8D01BBD48974B777" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A227F880-DF2A-4B74-A70D-7D5E074759F1}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_DB6CAA3BC3205794DBF046FF8B6134D4D555B780" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB0BDCA-1BA7-4A2C-B58D-EABA39A29788}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="2055" windowWidth="38700" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="3630" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="41">
   <si>
     <t>Account</t>
   </si>
@@ -565,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1299,26 @@
         <v>-43114264.270000003</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-11053758.560000001</v>
+      </c>
+      <c r="C42">
+        <v>-10965410.4</v>
+      </c>
+      <c r="D42">
+        <v>-9889875.299999997</v>
+      </c>
+      <c r="E42">
+        <v>-11688051.74</v>
+      </c>
+      <c r="F42">
+        <v>-45045279.369999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1308,7 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2061,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2814,7 +2834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3565,19 +3585,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4139,7 +4151,7 @@
         <v>20689.310000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4159,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4179,7 +4191,7 @@
         <v>82953.009999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4219,7 +4231,7 @@
         <v>3294644.61</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4239,7 +4251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>-40770.81</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4279,7 +4291,7 @@
         <v>-40770.81</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -4299,7 +4311,7 @@
         <v>-3958813.36</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -4317,30 +4329,6 @@
       </c>
       <c r="F44">
         <v>-3958813.36</v>
-      </c>
-      <c r="H44">
-        <f>B42+306596.02+43120.8</f>
-        <v>-849826.21</v>
-      </c>
-      <c r="I44">
-        <f>C42+306596.02+31636.4</f>
-        <v>-587387.42000000004</v>
-      </c>
-      <c r="J44">
-        <f t="shared" ref="I44:M44" si="0">D42+306596.02+43120.8</f>
-        <v>-343931.5400000001</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="0"/>
-        <v>-790285.30999999982</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>-3609096.54</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="0"/>
-        <v>349716.82</v>
       </c>
     </row>
   </sheetData>
@@ -4352,15 +4340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5111,7 +5093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5864,7 +5846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6617,7 +6599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7370,7 +7352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8123,7 +8105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Financial Statements/Consolidated Financials.xlsx
+++ b/Financial Statements/Consolidated Financials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://springfertility-my.sharepoint.com/personal/zorinan_kasilag_springfertility_com/Documents/Documents/Python/Financial Statements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_DB6CAA3BC3205794DBF046FF8B6134D4D555B780" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB0BDCA-1BA7-4A2C-B58D-EABA39A29788}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23A889DDC21052F78FB155EF8EA117BC2975B57C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{880BE911-594F-43DF-953C-C912B1CF9052}"/>
   <bookViews>
     <workbookView xWindow="10275" yWindow="3630" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,7 @@
     <sheet name="SV" sheetId="10" r:id="rId10"/>
     <sheet name="VAN" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -567,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,16 +1293,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-11053758.560000001</v>
+        <v>-11053601.07</v>
       </c>
       <c r="C42">
-        <v>-10965410.4</v>
+        <v>-10959536.15</v>
       </c>
       <c r="D42">
-        <v>-9889875.299999997</v>
+        <v>-9889717.8099999987</v>
       </c>
       <c r="E42">
-        <v>-11688051.74</v>
+        <v>-9480805.7400000021</v>
       </c>
       <c r="F42">
         <v>-45045279.369999997</v>
@@ -1328,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2081,7 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2834,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3587,7 +3576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4319,13 +4308,13 @@
         <v>-849826.2100000002</v>
       </c>
       <c r="C44">
-        <v>-587387.42000000004</v>
+        <v>-581655.42000000004</v>
       </c>
       <c r="D44">
         <v>-295984.01000000013</v>
       </c>
       <c r="E44">
-        <v>-777432.35000000009</v>
+        <v>1429813.65</v>
       </c>
       <c r="F44">
         <v>-3958813.36</v>
@@ -4340,7 +4329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5093,7 +5082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5846,7 +5835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6599,7 +6588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7352,7 +7341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8081,13 +8070,13 @@
         <v>40</v>
       </c>
       <c r="B44">
-        <v>-7407462.9399999985</v>
+        <v>-7407305.4499999993</v>
       </c>
       <c r="C44">
-        <v>-7014472.1800000006</v>
+        <v>-7014329.9300000006</v>
       </c>
       <c r="D44">
-        <v>-7035081.9399999985</v>
+        <v>-7034924.4499999993</v>
       </c>
       <c r="E44">
         <v>-7491100.0200000014</v>
@@ -8105,7 +8094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
